--- a/DATA/OUT/EJEMPLO_1.xlsx
+++ b/DATA/OUT/EJEMPLO_1.xlsx
@@ -7,9 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Entradas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Matriz" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Pesos" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Configuracion" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Umbrales" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Configuracion" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,6 +487,31 @@
           <t>X10</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>YD1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>YD2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>YD3</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>YD4</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>YD5</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -518,6 +544,21 @@
       <c r="J2" t="n">
         <v>2</v>
       </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -549,6 +590,21 @@
       </c>
       <c r="J3" t="n">
         <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -581,6 +637,21 @@
       </c>
       <c r="J4" t="n">
         <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -594,7 +665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,19 +679,195 @@
           <t>W1</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>W2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>W3</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>W4</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>W5</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>[-7.48770601]</t>
-        </is>
+      <c r="A2" t="n">
+        <v>-8.06</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-9.4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-7.82</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-8.289999999999999</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>[-7.78770601]</t>
-        </is>
+      <c r="A3" t="n">
+        <v>-7.02</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-10.26</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-7.640000000000001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.609999999999999</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-7.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-2.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-3.76</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-2.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-3.98</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-7.37</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.289999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-4.19</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-8.129999999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.460000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-3.77</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.9300000000000002</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.04999999999999982</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-2.53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-3.16</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.1100000000000001</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1.23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-4.85</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-2.52</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-4.98</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.8799999999999999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-2.16</v>
       </c>
     </row>
   </sheetData>
@@ -629,6 +876,57 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-1.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -650,8 +948,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0.2</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ESCALON</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/DATA/OUT/EJEMPLO_1.xlsx
+++ b/DATA/OUT/EJEMPLO_1.xlsx
@@ -702,172 +702,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-8.06</v>
+        <v>-7.639999730693294</v>
       </c>
       <c r="B2" t="n">
-        <v>-9.4</v>
+        <v>6.277219216789751</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.82</v>
+        <v>-7.623317336830395</v>
       </c>
       <c r="D2" t="n">
-        <v>7.25</v>
+        <v>7.745821624865567</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.289999999999999</v>
+        <v>7.426319452312589</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-7.02</v>
+        <v>-7.269999730693293</v>
       </c>
       <c r="B3" t="n">
-        <v>-10.26</v>
+        <v>6.467219216789751</v>
       </c>
       <c r="C3" t="n">
-        <v>-7.640000000000001</v>
+        <v>-7.583317336830396</v>
       </c>
       <c r="D3" t="n">
-        <v>7.609999999999999</v>
+        <v>7.205821624865568</v>
       </c>
       <c r="E3" t="n">
-        <v>-7.3</v>
+        <v>6.536319452312588</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1000000000000001</v>
+        <v>0.8800000538613415</v>
       </c>
       <c r="B4" t="n">
-        <v>-3.05</v>
+        <v>-1.884784881753927</v>
       </c>
       <c r="C4" t="n">
-        <v>0.79</v>
+        <v>-0.4066634673660792</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06000000000000005</v>
+        <v>-0.09083567502688683</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.04</v>
+        <v>-10.23239565243352</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.55</v>
+        <v>-0.03999994613865843</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.76</v>
+        <v>-1.984784881753927</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-0.09666346736607911</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.8691643249731134</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.52</v>
+        <v>-10.22239565243352</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8.52</v>
+        <v>8.83000005386134</v>
       </c>
       <c r="B6" t="n">
-        <v>-3.98</v>
+        <v>-11.22478488175393</v>
       </c>
       <c r="C6" t="n">
-        <v>7.57</v>
+        <v>8.733336532633921</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.37</v>
+        <v>-7.970835675026887</v>
       </c>
       <c r="E6" t="n">
-        <v>5.289999999999999</v>
+        <v>5.838195014007141</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8</v>
+        <v>8.410000053861342</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.19</v>
+        <v>-10.54478488175393</v>
       </c>
       <c r="C7" t="n">
-        <v>8.550000000000001</v>
+        <v>8.193336532633921</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.129999999999999</v>
+        <v>-8.740835675026887</v>
       </c>
       <c r="E7" t="n">
-        <v>6.460000000000001</v>
+        <v>5.858195014007141</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.52</v>
+        <v>0.3900000538613413</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.77</v>
+        <v>-1.714784881753927</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.9300000000000002</v>
+        <v>-0.5466634673660788</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04999999999999982</v>
+        <v>0.6291643249731131</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.53</v>
+        <v>-9.242395652433515</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.54</v>
+        <v>0.9600000538613414</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.16</v>
+        <v>-2.474784881753925</v>
       </c>
       <c r="C9" t="n">
-        <v>0.21</v>
+        <v>-0.706663467366079</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1100000000000001</v>
+        <v>0.6891643249731132</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.23</v>
+        <v>-10.40239565243352</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.52</v>
+        <v>-0.08999994613865869</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.85</v>
+        <v>-3.034784881753924</v>
       </c>
       <c r="C10" t="n">
-        <v>0.73</v>
+        <v>0.833336532633921</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.09916432497311334</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.52</v>
+        <v>-9.812395652433516</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.72</v>
+        <v>0.1800000538613413</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.98</v>
+        <v>-1.854784881753926</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2000000000000002</v>
+        <v>-0.006663467366078812</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.8799999999999999</v>
+        <v>-0.1008356750268868</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.16</v>
+        <v>-10.05239565243352</v>
       </c>
     </row>
   </sheetData>
@@ -898,27 +898,27 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.84</v>
+        <v>0.5100000269306707</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.07</v>
+        <v>-0.3452780783210248</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.95</v>
+        <v>-0.8883317336830396</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.38</v>
+        <v>0.1595821624865565</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.49</v>
+        <v>1.413691011875321</v>
       </c>
     </row>
   </sheetData>
@@ -950,7 +950,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ESCALON</t>
+          <t>SIGMOIDE</t>
         </is>
       </c>
     </row>
